--- a/data.xlsx
+++ b/data.xlsx
@@ -12,51 +12,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
-    <t>username</t>
+    <t>USERNAME</t>
   </si>
   <si>
-    <t>name</t>
+    <t>NAME</t>
   </si>
   <si>
-    <t>surname</t>
+    <t>SURNAME</t>
   </si>
   <si>
-    <t>email</t>
+    <t>EMAIL</t>
   </si>
   <si>
-    <t>phone</t>
+    <t>PHONE</t>
   </si>
   <si>
-    <t>birthdate</t>
+    <t>BIRTHDATE</t>
   </si>
   <si>
-    <t>status</t>
+    <t>STATUS</t>
   </si>
   <si>
-    <t>location</t>
+    <t>SPECIALTY</t>
   </si>
   <si>
-    <t>academic_title</t>
+    <t>LOCATION</t>
   </si>
   <si>
-    <t>baba</t>
+    <t>PROFILE_LINK</t>
   </si>
   <si>
-    <t>babayev</t>
+    <t>ali</t>
   </si>
   <si>
-    <t>baba@example.com</t>
+    <t>aliyev</t>
   </si>
   <si>
-    <t>+994707007070</t>
+    <t>ali@example.com</t>
+  </si>
+  <si>
+    <t>+994505555555</t>
+  </si>
+  <si>
+    <t>Engiiner</t>
   </si>
   <si>
     <t>Baku</t>
   </si>
   <si>
-    <t>Prof</t>
+    <t>fdshbfdbs</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,34 +147,40 @@
       <c r="I1" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>37289.0</v>
+        <v>36892.0</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
